--- a/BackTest/2019-10-30 BackTest REP.xlsx
+++ b/BackTest/2019-10-30 BackTest REP.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -12526,14 +12526,20 @@
         <v>10571</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>10540</v>
+      </c>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12561,14 +12567,20 @@
         <v>10566</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>10490</v>
+      </c>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12596,14 +12608,20 @@
         <v>10559.5</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>10490</v>
+      </c>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12631,14 +12649,20 @@
         <v>10555</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>10500</v>
+      </c>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12666,14 +12690,20 @@
         <v>10550.5</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>10490</v>
+      </c>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12708,7 +12738,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +12770,20 @@
         <v>10534.5</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>10440</v>
+      </c>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12771,14 +12811,20 @@
         <v>10527</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>10550</v>
+      </c>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12806,14 +12852,20 @@
         <v>10521</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>10530</v>
+      </c>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12848,7 +12900,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12876,14 +12932,20 @@
         <v>10511</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>10470</v>
+      </c>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12918,7 +12980,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12946,14 +13012,20 @@
         <v>10501.5</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>10460</v>
+      </c>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12981,14 +13053,20 @@
         <v>10496.5</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>10430</v>
+      </c>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13016,14 +13094,20 @@
         <v>10491.5</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>10430</v>
+      </c>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13051,14 +13135,20 @@
         <v>10490.5</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>10430</v>
+      </c>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13086,14 +13176,20 @@
         <v>10485.5</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>10500</v>
+      </c>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13121,14 +13217,20 @@
         <v>10480.5</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>10480</v>
+      </c>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13156,14 +13258,20 @@
         <v>10477.5</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>10410</v>
+      </c>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13191,14 +13299,20 @@
         <v>10471</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>10450</v>
+      </c>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13226,14 +13340,20 @@
         <v>10467</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>10400</v>
+      </c>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13261,14 +13381,20 @@
         <v>10463.5</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>10470</v>
+      </c>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13296,14 +13422,20 @@
         <v>10459.5</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>10470</v>
+      </c>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13331,14 +13463,20 @@
         <v>10455</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>10450</v>
+      </c>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13373,7 +13511,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13401,14 +13543,20 @@
         <v>10449</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>10460</v>
+      </c>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13443,7 +13591,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13471,14 +13623,20 @@
         <v>10446</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>10440</v>
+      </c>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13513,7 +13671,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13548,7 +13710,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13583,7 +13749,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13618,7 +13788,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13653,7 +13827,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13866,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13723,7 +13905,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13758,7 +13944,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13793,7 +13983,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13828,7 +14022,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +14061,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13898,7 +14100,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13933,7 +14139,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -13968,7 +14178,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14003,7 +14217,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14038,7 +14256,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14073,7 +14295,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14108,7 +14334,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14143,7 +14373,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +14412,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14213,7 +14451,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +14490,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14283,7 +14529,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14318,7 +14568,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14353,7 +14607,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +14646,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14423,7 +14685,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14458,7 +14724,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14493,7 +14763,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14528,7 +14802,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +14841,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +14880,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14633,7 +14919,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +14958,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14703,7 +14997,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +15036,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +15075,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +15114,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15153,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +15192,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14913,7 +15231,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +15270,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +15309,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15348,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +15387,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +15426,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +15465,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +15504,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +15543,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +15582,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15621,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +15660,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +15699,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15368,7 +15738,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +15777,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15438,7 +15816,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15473,7 +15855,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15508,7 +15894,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15543,7 +15933,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15578,7 +15972,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15613,7 +16011,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15648,7 +16050,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15683,7 +16089,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +16128,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15753,7 +16167,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15788,7 +16206,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +16245,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -15858,7 +16284,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -15893,7 +16323,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -15928,7 +16362,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -15963,7 +16401,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16440,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16033,7 +16479,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16068,7 +16518,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16103,7 +16557,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16138,7 +16596,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16173,7 +16635,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16208,7 +16674,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16243,7 +16713,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16278,7 +16752,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16313,7 +16791,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16348,7 +16830,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16383,7 +16869,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +16908,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16453,7 +16947,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16488,7 +16986,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16523,7 +17025,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +17064,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16593,7 +17103,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16628,7 +17142,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16663,7 +17181,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16698,7 +17220,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16733,7 +17259,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16768,7 +17298,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16803,7 +17337,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -16838,7 +17376,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17415,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +17454,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -16943,7 +17493,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -16978,7 +17532,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17006,14 +17564,20 @@
         <v>10473</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>10460</v>
+      </c>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17041,14 +17605,20 @@
         <v>10469</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>10460</v>
+      </c>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17076,14 +17646,20 @@
         <v>10466.5</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>10450</v>
+      </c>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17111,14 +17687,20 @@
         <v>10463.5</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>10460</v>
+      </c>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17146,14 +17728,20 @@
         <v>10459.5</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>10450</v>
+      </c>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17181,14 +17769,20 @@
         <v>10454</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>10430</v>
+      </c>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17216,14 +17810,20 @@
         <v>10453</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>10430</v>
+      </c>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17251,14 +17851,20 @@
         <v>10454</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>10430</v>
+      </c>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17286,14 +17892,20 @@
         <v>10455.5</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>10480</v>
+      </c>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17321,14 +17933,20 @@
         <v>10456</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>10430</v>
+      </c>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17356,14 +17974,20 @@
         <v>10453.5</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>10450</v>
+      </c>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17391,14 +18015,20 @@
         <v>10451.5</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>10490</v>
+      </c>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17426,14 +18056,20 @@
         <v>10451.5</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>10390</v>
+      </c>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17461,14 +18097,20 @@
         <v>10450.5</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>10460</v>
+      </c>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17496,14 +18138,20 @@
         <v>10449.5</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>10350</v>
+      </c>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17531,14 +18179,20 @@
         <v>10445.5</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>10440</v>
+      </c>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17566,14 +18220,20 @@
         <v>10440</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>10400</v>
+      </c>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17601,14 +18261,20 @@
         <v>10434</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>10380</v>
+      </c>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17636,14 +18302,20 @@
         <v>10429.5</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>10400</v>
+      </c>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17678,7 +18350,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +18389,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17741,14 +18421,20 @@
         <v>10415</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>10310</v>
+      </c>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +18469,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +18508,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17853,7 +18547,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +18586,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17923,7 +18625,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17958,7 +18664,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17993,7 +18703,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18742,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18063,7 +18781,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18098,7 +18820,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18133,7 +18859,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18168,7 +18898,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18196,18 +18930,16 @@
         <v>10323</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>10260</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M509" t="n">
@@ -18237,14 +18969,12 @@
         <v>10317</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
@@ -18278,14 +19008,12 @@
         <v>10312</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
@@ -18319,14 +19047,12 @@
         <v>10307</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
@@ -18360,14 +19086,12 @@
         <v>10306</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>10350</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
@@ -18401,14 +19125,12 @@
         <v>10306</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>10350</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
@@ -18442,14 +19164,12 @@
         <v>10313.5</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>10500</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
@@ -18483,14 +19203,12 @@
         <v>10319.5</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>10510</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
@@ -21098,14 +21816,12 @@
         <v>10358</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
@@ -21139,14 +21855,12 @@
         <v>10356</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>10350</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
@@ -21180,14 +21894,12 @@
         <v>10354.5</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>10360</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
@@ -21221,14 +21933,12 @@
         <v>10355.5</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>10360</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
@@ -21379,14 +22089,12 @@
         <v>10346</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>10290</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
@@ -21420,14 +22128,12 @@
         <v>10343</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
@@ -21461,14 +22167,12 @@
         <v>10340.5</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>10310</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
@@ -21502,14 +22206,12 @@
         <v>10337</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>10290</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
@@ -21543,14 +22245,12 @@
         <v>10333</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
@@ -21584,14 +22284,12 @@
         <v>10330.5</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
@@ -21625,14 +22323,12 @@
         <v>10328</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
@@ -21666,14 +22362,12 @@
         <v>10324</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
@@ -21707,14 +22401,12 @@
         <v>10320.5</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>10290</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
@@ -21748,14 +22440,12 @@
         <v>10315.5</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>10220</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
@@ -21789,14 +22479,12 @@
         <v>10309</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>10220</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
@@ -21830,14 +22518,12 @@
         <v>10303.5</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
@@ -21871,14 +22557,12 @@
         <v>10296.5</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
@@ -21912,14 +22596,12 @@
         <v>10294</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
@@ -21953,14 +22635,12 @@
         <v>10289</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>10250</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
@@ -21994,14 +22674,12 @@
         <v>10283</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>10240</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
@@ -22035,14 +22713,12 @@
         <v>10275.5</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
@@ -22076,14 +22752,12 @@
         <v>10267.5</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
@@ -22117,14 +22791,12 @@
         <v>10260.5</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>10190</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
@@ -22158,14 +22830,12 @@
         <v>10252.5</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>10190</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
@@ -22199,14 +22869,12 @@
         <v>10248</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
@@ -22240,14 +22908,12 @@
         <v>10241.5</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
@@ -22281,14 +22947,12 @@
         <v>10236</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
@@ -22322,14 +22986,12 @@
         <v>10231.5</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
@@ -22363,14 +23025,12 @@
         <v>10229.5</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>10240</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
@@ -22404,14 +23064,12 @@
         <v>10228</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>10250</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
@@ -22445,14 +23103,12 @@
         <v>10224</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
@@ -22486,14 +23142,12 @@
         <v>10224.5</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>10290</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
@@ -22527,14 +23181,12 @@
         <v>10222.5</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>10250</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
@@ -22568,14 +23220,12 @@
         <v>10223.5</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>10240</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
@@ -22609,14 +23259,12 @@
         <v>10223.5</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>10220</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
@@ -22650,14 +23298,12 @@
         <v>10224</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>10220</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
@@ -22691,14 +23337,12 @@
         <v>10225.5</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>10240</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
@@ -22732,14 +23376,12 @@
         <v>10223.5</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>10240</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
@@ -22773,14 +23415,12 @@
         <v>10224</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>10260</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
@@ -22814,14 +23454,12 @@
         <v>10224.5</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>10250</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
@@ -22855,14 +23493,12 @@
         <v>10225.5</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>10230</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
@@ -22896,14 +23532,12 @@
         <v>10226</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
@@ -22937,14 +23571,12 @@
         <v>10227</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
@@ -22978,14 +23610,12 @@
         <v>10227.5</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
@@ -23019,14 +23649,12 @@
         <v>10227.5</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
@@ -23060,14 +23688,12 @@
         <v>10227.5</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>10200</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
@@ -23101,14 +23727,12 @@
         <v>10228.5</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>10220</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
@@ -23142,14 +23766,12 @@
         <v>10232.5</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
@@ -23183,14 +23805,12 @@
         <v>10234.5</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
@@ -23224,14 +23844,12 @@
         <v>10236</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
@@ -23265,14 +23883,12 @@
         <v>10241</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>10300</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
@@ -23306,14 +23922,12 @@
         <v>10245.5</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>10380</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
@@ -23347,14 +23961,12 @@
         <v>10248.5</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>10310</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
@@ -23388,14 +24000,12 @@
         <v>10256</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>10390</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
@@ -23429,14 +24039,12 @@
         <v>10264.5</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>10390</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
@@ -23470,14 +24078,12 @@
         <v>10270.5</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>10340</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
@@ -23511,14 +24117,12 @@
         <v>10275.5</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>10340</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
@@ -23552,14 +24156,12 @@
         <v>10280</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
@@ -23593,14 +24195,12 @@
         <v>10287</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>10400</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
@@ -23634,14 +24234,12 @@
         <v>10299</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>10490</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
@@ -23675,14 +24273,12 @@
         <v>10310.5</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>10460</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -23716,14 +24312,12 @@
         <v>10323</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>10460</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest REP.xlsx
+++ b/BackTest/2019-10-30 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2497,7 +2497,7 @@
         <v>13660.99476509952</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>14711.29756509952</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>14145.46041476054</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>13867.80881272319</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>12673.54911272319</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>13489.71649454117</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>13102.31629411994</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>13159.45405022778</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>13076.23425022778</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>12099.21645022777</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>10744.64625022778</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>10754.23185022778</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>10766.12085022778</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>10766.12085022778</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>10744.91005022777</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>10473.33215022777</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>10061.39305022777</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>9752.951350227775</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>9819.267150227775</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>10086.33965022778</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>9252.346750227776</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>9222.630950227776</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>10245.14885022778</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>8990.012550227777</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>8823.787650227778</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>8423.572950227777</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>7369.127950227778</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>7579.153250227778</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>7904.579250227778</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>7644.296350227778</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>6519.622150227779</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5488.039666093599</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>10161.41134257983</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>10999.18694257983</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>12241.57158463992</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>12036.12198463992</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>11831.73468463992</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>11724.72388463992</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>11724.72388463992</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>11606.12472357187</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>11584.20562357188</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>11157.83272357188</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>11091.23583990375</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>11418.56273990375</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>11327.01903990375</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>10182.24089872937</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>10233.85839872938</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>10233.85839872938</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>10233.85839872938</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>10233.85839872938</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>10261.86049872937</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>9681.221498729376</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>10071.26639872937</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>10086.26639872937</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>10074.26639872937</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>10090.41799872937</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>9987.411598729374</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>9987.411598729374</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>9987.411598729374</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>10129.63599872937</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>9768.727698729374</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>9910.635998729373</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>9910.635998729373</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>9910.635998729373</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>9906.458698729373</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>8597.565898729374</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>9033.466298729374</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>9033.466298729374</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>9033.466298729374</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>8952.478298729375</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>9102.374998729374</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>8711.562198729374</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>8999.684498729373</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>8999.684498729373</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>8506.061298729373</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>7968.036298729373</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>8071.907698729373</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>7887.143298729373</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>7887.143298729373</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>7827.293498729373</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>7698.293498729373</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>7426.092865396039</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -19096,11 +19096,17 @@
         <v>639.5264016688088</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>10240</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19135,17 @@
         <v>1021.527201668809</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>10250</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19174,17 @@
         <v>1041.837301668809</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>10270</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19213,17 @@
         <v>1041.837301668809</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>10280</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +19252,17 @@
         <v>1043.837301668809</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>10280</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19291,17 @@
         <v>1043.837301668809</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>10350</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +19330,17 @@
         <v>1183.360401668809</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>10350</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19369,17 @@
         <v>1239.856301668809</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>10400</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19408,17 @@
         <v>1376.968501668809</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>10500</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19451,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19488,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19525,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19562,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19599,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19636,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19673,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19710,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19747,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +19784,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +19821,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +19858,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +19895,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +19932,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +19969,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +20006,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +20043,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +20080,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20117,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20154,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20191,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20228,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20265,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20302,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20339,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20376,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20413,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20450,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20487,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20524,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20561,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20598,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20635,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20672,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20709,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20746,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20783,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20820,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20857,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20894,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20931,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20968,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +21005,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +21042,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +21079,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +21116,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21153,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +21190,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21227,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +21264,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +21301,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +21338,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21375,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21412,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21449,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21486,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21523,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21560,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21597,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21634,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +21671,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21708,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21745,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +21778,17 @@
         <v>1060.202021991696</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>10310</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +21821,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +21858,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +21895,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +21932,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +21969,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +22006,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +22043,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +22080,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +22117,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22154,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +22187,17 @@
         <v>874.1245219916957</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>10290</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +22226,17 @@
         <v>873.9930219916957</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>10330</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +22265,17 @@
         <v>858.9930219916957</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>10310</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22304,17 @@
         <v>855.7717219916957</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>10290</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22343,17 @@
         <v>855.7717219916957</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>10280</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22382,17 @@
         <v>855.7717219916957</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>10280</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22421,17 @@
         <v>844.1627219916957</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>10280</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22460,17 @@
         <v>799.6228219916957</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>10260</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +22499,17 @@
         <v>765.5143219916956</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>10250</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +22538,17 @@
         <v>768.3359219916956</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>10210</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +22577,17 @@
         <v>765.5142219916956</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>10220</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +22616,17 @@
         <v>765.5142219916956</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>10210</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +22655,17 @@
         <v>768.1517219916957</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>10210</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +22694,17 @@
         <v>652.3811219916956</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>10280</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22733,17 @@
         <v>537.8019219916956</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>10250</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22772,17 @@
         <v>537.8019219916956</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>10210</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,15 +22811,17 @@
         <v>402.6021219916956</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>10210</v>
       </c>
-      <c r="J666" t="n">
-        <v>10210</v>
-      </c>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,17 +22850,15 @@
         <v>401.0821219916957</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>10200</v>
       </c>
-      <c r="J667" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L667" t="n">
@@ -22441,17 +22889,15 @@
         <v>423.9821219916956</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>10190</v>
       </c>
-      <c r="J668" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L668" t="n">
@@ -22482,14 +22928,12 @@
         <v>423.9821219916956</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>10200</v>
       </c>
-      <c r="J669" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22523,14 +22967,12 @@
         <v>423.9821219916956</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>10200</v>
       </c>
-      <c r="J670" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22564,14 +23006,12 @@
         <v>423.9821219916956</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>10200</v>
       </c>
-      <c r="J671" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22605,14 +23045,12 @@
         <v>461.5461942573206</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>10200</v>
       </c>
-      <c r="J672" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22646,14 +23084,12 @@
         <v>461.5461942573206</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>10240</v>
       </c>
-      <c r="J673" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22687,14 +23123,12 @@
         <v>263.5232942573206</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>10240</v>
       </c>
-      <c r="J674" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22728,14 +23162,12 @@
         <v>263.5232942573206</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>10200</v>
       </c>
-      <c r="J675" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22769,14 +23201,12 @@
         <v>263.6232942573207</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>10200</v>
       </c>
-      <c r="J676" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22810,14 +23240,12 @@
         <v>249.8934942573206</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>10290</v>
       </c>
-      <c r="J677" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22851,14 +23279,12 @@
         <v>237.8634942573206</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>10250</v>
       </c>
-      <c r="J678" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22892,14 +23318,12 @@
         <v>232.4134942573207</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>10230</v>
       </c>
-      <c r="J679" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22933,14 +23357,12 @@
         <v>-36.94520574267935</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>10220</v>
       </c>
-      <c r="J680" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22974,14 +23396,12 @@
         <v>-24.42330574267935</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>10190</v>
       </c>
-      <c r="J681" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23015,14 +23435,12 @@
         <v>-6.622305742679348</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>10240</v>
       </c>
-      <c r="J682" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23056,14 +23474,12 @@
         <v>11.34099425732065</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>10250</v>
       </c>
-      <c r="J683" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23097,14 +23513,12 @@
         <v>-168.2190057426793</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>10260</v>
       </c>
-      <c r="J684" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23138,14 +23552,12 @@
         <v>-286.5915057426794</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>10250</v>
       </c>
-      <c r="J685" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23179,14 +23591,12 @@
         <v>-290.1404057426794</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>10230</v>
       </c>
-      <c r="J686" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23220,14 +23630,12 @@
         <v>-290.1404057426794</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>10210</v>
       </c>
-      <c r="J687" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23261,14 +23669,12 @@
         <v>-294.7804057426794</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>10210</v>
       </c>
-      <c r="J688" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23302,14 +23708,12 @@
         <v>-294.7804057426794</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>10200</v>
       </c>
-      <c r="J689" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23343,14 +23747,12 @@
         <v>-294.7804057426794</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>10200</v>
       </c>
-      <c r="J690" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23384,14 +23786,12 @@
         <v>-185.3304057426794</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>10200</v>
       </c>
-      <c r="J691" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23425,14 +23825,12 @@
         <v>-184.0004057426794</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>10220</v>
       </c>
-      <c r="J692" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23466,14 +23864,12 @@
         <v>-184.0004057426794</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>10280</v>
       </c>
-      <c r="J693" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23507,14 +23903,12 @@
         <v>-184.0004057426794</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>10280</v>
       </c>
-      <c r="J694" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23548,14 +23942,12 @@
         <v>-175.4904057426794</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>10280</v>
       </c>
-      <c r="J695" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23589,14 +23981,12 @@
         <v>-136.6804057426794</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>10330</v>
       </c>
-      <c r="J696" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23630,14 +24020,12 @@
         <v>-214.5294057426794</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>10390</v>
       </c>
-      <c r="J697" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23671,12 +24059,12 @@
         <v>-196.7594057426794</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>10310</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23710,12 +24098,12 @@
         <v>-186.7690135311409</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>10390</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23749,12 +24137,12 @@
         <v>-188.1590135311409</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23788,12 +24176,12 @@
         <v>-188.1590135311409</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>10340</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23827,12 +24215,12 @@
         <v>65.15568646885907</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>10340</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23866,12 +24254,12 @@
         <v>162.8244864688591</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>10350</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23905,12 +24293,12 @@
         <v>162.8722864688591</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>10210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23947,9 +24335,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23986,9 +24372,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24025,9 +24409,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24064,9 +24446,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24103,9 +24483,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24142,9 +24520,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24181,9 +24557,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24220,9 +24594,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24259,9 +24631,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24298,9 +24668,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24337,9 +24705,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24376,9 +24742,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24415,9 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24454,9 +24816,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24493,9 +24853,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24532,9 +24890,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24571,9 +24927,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24610,9 +24964,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24649,9 +25001,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24688,9 +25038,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24727,9 +25075,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24766,9 +25112,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24805,9 +25149,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>10210</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24819,6 +25161,6 @@
       <c r="M727" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest REP.xlsx
+++ b/BackTest/2019-10-30 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1448.05912839589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10410</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10450</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-1268.671707614193</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10450</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-1266.371707614193</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10490</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-1236.930307614193</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10550</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-1237.239107614193</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10560</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-479.7242948245732</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10550</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +761,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +798,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +835,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +872,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +909,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +946,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +983,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1020,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1057,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1094,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1131,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1168,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1205,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1242,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1279,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1316,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1353,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1390,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1427,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1464,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1501,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1538,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1575,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1612,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1649,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1686,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1723,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1760,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1797,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1834,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1871,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1908,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1945,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,14 +1978,16 @@
         <v>5260.597513043404</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1837,7 +2013,7 @@
         <v>4201.751013043404</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2046,7 @@
         <v>4635.374513584432</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2079,7 @@
         <v>5203.873813584432</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2112,7 @@
         <v>7422.373813584432</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2145,7 @@
         <v>8290.151113584432</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2178,7 @@
         <v>9757.034946878865</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2211,7 @@
         <v>8818.410581151678</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3289,7 +3465,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3498,7 @@
         <v>13489.71649454117</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3531,7 @@
         <v>13102.31629411994</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3564,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3597,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3630,7 @@
         <v>13159.45405022778</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3663,7 @@
         <v>13076.23425022778</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3729,7 @@
         <v>12099.21645022777</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3795,7 @@
         <v>10744.64625022778</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3828,7 @@
         <v>10754.23185022778</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3861,7 @@
         <v>10766.12085022778</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3894,7 @@
         <v>10766.12085022778</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3927,7 @@
         <v>10744.91005022777</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3960,7 @@
         <v>10473.33215022777</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3993,7 @@
         <v>10061.39305022777</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4026,7 @@
         <v>9752.951350227775</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4059,7 @@
         <v>9819.267150227775</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4092,7 @@
         <v>10086.33965022778</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4125,7 @@
         <v>9252.346750227776</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4158,7 @@
         <v>9222.630950227776</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4191,7 @@
         <v>10245.14885022778</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4224,7 @@
         <v>8990.012550227777</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4257,7 @@
         <v>8823.787650227778</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4290,7 @@
         <v>8423.572950227777</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4323,7 @@
         <v>7369.127950227778</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4356,7 @@
         <v>7579.153250227778</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4389,7 @@
         <v>7904.579250227778</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4422,7 @@
         <v>7644.296350227778</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4455,7 @@
         <v>6519.622150227779</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4411,7 +4587,7 @@
         <v>5488.039666093599</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -19096,3654 +19272,3252 @@
         <v>639.5264016688088</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>10260</v>
+      </c>
+      <c r="C568" t="n">
+        <v>10270</v>
+      </c>
+      <c r="D568" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E568" t="n">
+        <v>10260</v>
+      </c>
+      <c r="F568" t="n">
+        <v>382.0008</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1021.527201668809</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C569" t="n">
+        <v>10280</v>
+      </c>
+      <c r="D569" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E569" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F569" t="n">
+        <v>20.3101</v>
+      </c>
+      <c r="G569" t="n">
+        <v>1041.837301668809</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C570" t="n">
+        <v>10280</v>
+      </c>
+      <c r="D570" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E570" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F570" t="n">
+        <v>5.461</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1041.837301668809</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C571" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D571" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E571" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F571" t="n">
+        <v>2</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1043.837301668809</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C572" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D572" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E572" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F572" t="n">
+        <v>9.2079</v>
+      </c>
+      <c r="G572" t="n">
+        <v>1043.837301668809</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C573" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D573" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E573" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F573" t="n">
+        <v>139.5231</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1183.360401668809</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C574" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D574" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E574" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F574" t="n">
+        <v>56.4959</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1239.856301668809</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C575" t="n">
+        <v>10520</v>
+      </c>
+      <c r="D575" t="n">
+        <v>10520</v>
+      </c>
+      <c r="E575" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F575" t="n">
+        <v>137.1122</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1376.968501668809</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>10550</v>
+      </c>
+      <c r="C576" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D576" t="n">
+        <v>10550</v>
+      </c>
+      <c r="E576" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F576" t="n">
+        <v>292.8567</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1669.825201668809</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C577" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D577" t="n">
+        <v>10550</v>
+      </c>
+      <c r="E577" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F577" t="n">
+        <v>77.92610000000001</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1669.825201668809</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C578" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D578" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E578" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F578" t="n">
+        <v>11.3925</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1669.825201668809</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C579" t="n">
+        <v>10510</v>
+      </c>
+      <c r="D579" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E579" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1668.171201668809</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C580" t="n">
+        <v>10510</v>
+      </c>
+      <c r="D580" t="n">
+        <v>10510</v>
+      </c>
+      <c r="E580" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1668.171201668809</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C581" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D581" t="n">
+        <v>10510</v>
+      </c>
+      <c r="E581" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F581" t="n">
+        <v>3</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1665.171201668809</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C582" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D582" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E582" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.3402</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1665.511401668809</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C583" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D583" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E583" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1.0207</v>
+      </c>
+      <c r="G583" t="n">
+        <v>1665.511401668809</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C584" t="n">
+        <v>10520</v>
+      </c>
+      <c r="D584" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E584" t="n">
+        <v>10520</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.9021</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1664.609301668809</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>10520</v>
+      </c>
+      <c r="C585" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D585" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E585" t="n">
+        <v>10520</v>
+      </c>
+      <c r="F585" t="n">
+        <v>47.91602032288699</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1712.525321991696</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C586" t="n">
+        <v>10530</v>
+      </c>
+      <c r="D586" t="n">
+        <v>10530</v>
+      </c>
+      <c r="E586" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F586" t="n">
+        <v>14.2286799620133</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1712.525321991696</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>10530</v>
+      </c>
+      <c r="C587" t="n">
+        <v>10580</v>
+      </c>
+      <c r="D587" t="n">
+        <v>10580</v>
+      </c>
+      <c r="E587" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F587" t="n">
+        <v>277.817</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1990.342321991696</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>10580</v>
+      </c>
+      <c r="C588" t="n">
+        <v>10460</v>
+      </c>
+      <c r="D588" t="n">
+        <v>10580</v>
+      </c>
+      <c r="E588" t="n">
+        <v>10460</v>
+      </c>
+      <c r="F588" t="n">
+        <v>3.3964</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1986.945921991696</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>10460</v>
+      </c>
+      <c r="C589" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D589" t="n">
+        <v>10460</v>
+      </c>
+      <c r="E589" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F589" t="n">
+        <v>27.2146</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1959.731321991696</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C590" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D590" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E590" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1.0755</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1959.731321991696</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C591" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D591" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E591" t="n">
+        <v>10440</v>
+      </c>
+      <c r="F591" t="n">
+        <v>1.5448</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1958.186521991696</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C592" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D592" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E592" t="n">
+        <v>10400</v>
+      </c>
+      <c r="F592" t="n">
+        <v>8.3588</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1949.827721991696</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C593" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D593" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E593" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F593" t="n">
+        <v>45.9817</v>
+      </c>
+      <c r="G593" t="n">
+        <v>1903.846021991696</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C594" t="n">
+        <v>10370</v>
+      </c>
+      <c r="D594" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E594" t="n">
+        <v>10370</v>
+      </c>
+      <c r="F594" t="n">
+        <v>90.9543</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1812.891721991696</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>10370</v>
+      </c>
+      <c r="C595" t="n">
+        <v>10370</v>
+      </c>
+      <c r="D595" t="n">
+        <v>10470</v>
+      </c>
+      <c r="E595" t="n">
+        <v>10370</v>
+      </c>
+      <c r="F595" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1812.891721991696</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C596" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D596" t="n">
+        <v>10460</v>
+      </c>
+      <c r="E596" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F596" t="n">
+        <v>404.405</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1408.486721991696</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C597" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D597" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E597" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F597" t="n">
+        <v>56.2733</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1408.486721991696</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C598" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D598" t="n">
+        <v>10440</v>
+      </c>
+      <c r="E598" t="n">
+        <v>10440</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.7645999999999999</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1409.251321991696</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C599" t="n">
+        <v>10430</v>
+      </c>
+      <c r="D599" t="n">
+        <v>10430</v>
+      </c>
+      <c r="E599" t="n">
+        <v>10430</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.4592</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1408.792121991696</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C600" t="n">
+        <v>10430</v>
+      </c>
+      <c r="D600" t="n">
+        <v>10430</v>
+      </c>
+      <c r="E600" t="n">
+        <v>10430</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.8104</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1408.792121991696</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C601" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D601" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E601" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F601" t="n">
+        <v>216.9472</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1191.844921991696</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C602" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D602" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E602" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F602" t="n">
+        <v>66.78400000000001</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1191.844921991696</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C603" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D603" t="n">
+        <v>10410</v>
+      </c>
+      <c r="E603" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1192.076221991696</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C604" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D604" t="n">
+        <v>10410</v>
+      </c>
+      <c r="E604" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1.2179</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1192.076221991696</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C605" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D605" t="n">
+        <v>10410</v>
+      </c>
+      <c r="E605" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0.9134</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1192.076221991696</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C606" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D606" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E606" t="n">
+        <v>10440</v>
+      </c>
+      <c r="F606" t="n">
+        <v>2.1201</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1194.196321991696</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C607" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D607" t="n">
+        <v>10440</v>
+      </c>
+      <c r="E607" t="n">
+        <v>10440</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1.2273</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1192.969021991696</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C608" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D608" t="n">
+        <v>10440</v>
+      </c>
+      <c r="E608" t="n">
+        <v>10440</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.7365</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1192.969021991696</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C609" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D609" t="n">
+        <v>10440</v>
+      </c>
+      <c r="E609" t="n">
+        <v>10430</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1192.969021991696</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C610" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D610" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E610" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.2978</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1193.266821991696</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C611" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D611" t="n">
+        <v>10450</v>
+      </c>
+      <c r="E611" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F611" t="n">
+        <v>31.682</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1161.584821991696</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C612" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D612" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E612" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1162.549321991696</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C613" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D613" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E613" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.9646</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1162.549321991696</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C614" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D614" t="n">
+        <v>10400</v>
+      </c>
+      <c r="E614" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F614" t="n">
+        <v>34.2855</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1196.834821991696</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>10490</v>
+      </c>
+      <c r="C615" t="n">
+        <v>10490</v>
+      </c>
+      <c r="D615" t="n">
+        <v>10490</v>
+      </c>
+      <c r="E615" t="n">
+        <v>10490</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.1917</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1197.026521991696</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C616" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D616" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E616" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F616" t="n">
+        <v>76.904</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1120.122521991696</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C617" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D617" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E617" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F617" t="n">
+        <v>56.8572</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1063.265321991696</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C618" t="n">
+        <v>10410</v>
+      </c>
+      <c r="D618" t="n">
+        <v>10410</v>
+      </c>
+      <c r="E618" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2.1691</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1065.434421991696</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>10410</v>
+      </c>
+      <c r="C619" t="n">
+        <v>10430</v>
+      </c>
+      <c r="D619" t="n">
+        <v>10430</v>
+      </c>
+      <c r="E619" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.5441</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1065.978521991696</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>10430</v>
+      </c>
+      <c r="C620" t="n">
+        <v>10430</v>
+      </c>
+      <c r="D620" t="n">
+        <v>10430</v>
+      </c>
+      <c r="E620" t="n">
+        <v>10430</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1.1073</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1065.978521991696</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C621" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D621" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E621" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.1912</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1065.787321991696</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C622" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D622" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E622" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.5621</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1066.349421991696</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C623" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D623" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E623" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.1874</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1066.349421991696</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C624" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D624" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E624" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1066.349421991696</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>10340</v>
+      </c>
+      <c r="C625" t="n">
+        <v>10340</v>
+      </c>
+      <c r="D625" t="n">
+        <v>10340</v>
+      </c>
+      <c r="E625" t="n">
+        <v>10340</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1064.889421991696</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C626" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D626" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E626" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F626" t="n">
+        <v>3.4149</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1068.304321991696</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C627" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D627" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E627" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.6616</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1068.304321991696</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C628" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D628" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E628" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.5201</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1068.304321991696</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C629" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D629" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E629" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F629" t="n">
+        <v>8.8628</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1059.441521991696</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C630" t="n">
+        <v>10390</v>
+      </c>
+      <c r="D630" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E630" t="n">
+        <v>10390</v>
+      </c>
+      <c r="F630" t="n">
+        <v>30.2214</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1089.662921991696</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C631" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D631" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E631" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1.6041</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1088.058821991696</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C632" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D632" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E632" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F632" t="n">
+        <v>3.2305</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1088.058821991696</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C633" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D633" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E633" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F633" t="n">
+        <v>2</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1088.058821991696</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C634" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D634" t="n">
+        <v>10330</v>
+      </c>
+      <c r="E634" t="n">
+        <v>10330</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.2426</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1087.816221991696</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C635" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D635" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E635" t="n">
+        <v>10330</v>
+      </c>
+      <c r="F635" t="n">
+        <v>72.081</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1159.897221991696</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C636" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D636" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E636" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F636" t="n">
+        <v>88.2719</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1159.897221991696</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C637" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D637" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E637" t="n">
+        <v>10310</v>
+      </c>
+      <c r="F637" t="n">
+        <v>104.9084</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1054.988821991696</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>10320</v>
+      </c>
+      <c r="C638" t="n">
+        <v>10310</v>
+      </c>
+      <c r="D638" t="n">
+        <v>10320</v>
+      </c>
+      <c r="E638" t="n">
+        <v>10310</v>
+      </c>
+      <c r="F638" t="n">
+        <v>22.4018</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1032.587021991696</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C639" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D639" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E639" t="n">
+        <v>10330</v>
+      </c>
+      <c r="F639" t="n">
+        <v>27.615</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1060.202021991696</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>10320</v>
+      </c>
+      <c r="C640" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D640" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E640" t="n">
+        <v>10320</v>
+      </c>
+      <c r="F640" t="n">
+        <v>8.436500000000001</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1060.202021991696</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C641" t="n">
+        <v>10350</v>
+      </c>
+      <c r="D641" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E641" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1060.314221991696</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C642" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D642" t="n">
+        <v>10330</v>
+      </c>
+      <c r="E642" t="n">
+        <v>10330</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1.5356</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1058.778621991696</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C643" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D643" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E643" t="n">
+        <v>10350</v>
+      </c>
+      <c r="F643" t="n">
+        <v>7.3751</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1066.153721991696</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C644" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D644" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E644" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F644" t="n">
+        <v>79.7103</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1066.153721991696</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C645" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D645" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E645" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F645" t="n">
+        <v>51.688</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1066.153721991696</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C646" t="n">
+        <v>10360</v>
+      </c>
+      <c r="D646" t="n">
+        <v>10360</v>
+      </c>
+      <c r="E646" t="n">
+        <v>10360</v>
+      </c>
+      <c r="F646" t="n">
+        <v>62</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1066.153721991696</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C647" t="n">
+        <v>10300</v>
+      </c>
+      <c r="D647" t="n">
+        <v>10330</v>
+      </c>
+      <c r="E647" t="n">
+        <v>10300</v>
+      </c>
+      <c r="F647" t="n">
+        <v>181.6699</v>
+      </c>
+      <c r="G647" t="n">
+        <v>884.4838219916957</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>10350</v>
+      </c>
+      <c r="C648" t="n">
+        <v>10290</v>
+      </c>
+      <c r="D648" t="n">
+        <v>10350</v>
+      </c>
+      <c r="E648" t="n">
+        <v>10290</v>
+      </c>
+      <c r="F648" t="n">
+        <v>10.6218</v>
+      </c>
+      <c r="G648" t="n">
+        <v>873.8620219916957</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>10290</v>
+      </c>
+      <c r="C649" t="n">
+        <v>10290</v>
+      </c>
+      <c r="D649" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E649" t="n">
+        <v>10290</v>
+      </c>
+      <c r="F649" t="n">
+        <v>32.5382</v>
+      </c>
+      <c r="G649" t="n">
+        <v>873.8620219916957</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C650" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D650" t="n">
+        <v>10330</v>
+      </c>
+      <c r="E650" t="n">
+        <v>10330</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="G650" t="n">
+        <v>874.1245219916957</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>10310</v>
+      </c>
+      <c r="C651" t="n">
+        <v>10310</v>
+      </c>
+      <c r="D651" t="n">
+        <v>10310</v>
+      </c>
+      <c r="E651" t="n">
+        <v>10310</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="G651" t="n">
+        <v>873.9930219916957</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>10290</v>
+      </c>
+      <c r="C652" t="n">
+        <v>10290</v>
+      </c>
+      <c r="D652" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E652" t="n">
+        <v>10290</v>
+      </c>
+      <c r="F652" t="n">
+        <v>15</v>
+      </c>
+      <c r="G652" t="n">
+        <v>858.9930219916957</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C653" t="n">
+        <v>10280</v>
+      </c>
+      <c r="D653" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E653" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F653" t="n">
+        <v>3.2213</v>
+      </c>
+      <c r="G653" t="n">
+        <v>855.7717219916957</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C654" t="n">
+        <v>10280</v>
+      </c>
+      <c r="D654" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E654" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F654" t="n">
+        <v>8.099399999999999</v>
+      </c>
+      <c r="G654" t="n">
+        <v>855.7717219916957</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C655" t="n">
+        <v>10280</v>
+      </c>
+      <c r="D655" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E655" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F655" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="G655" t="n">
+        <v>855.7717219916957</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C656" t="n">
+        <v>10260</v>
+      </c>
+      <c r="D656" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E656" t="n">
+        <v>10250</v>
+      </c>
+      <c r="F656" t="n">
+        <v>11.609</v>
+      </c>
+      <c r="G656" t="n">
+        <v>844.1627219916957</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>10290</v>
+      </c>
+      <c r="C657" t="n">
+        <v>10250</v>
+      </c>
+      <c r="D657" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E657" t="n">
+        <v>10250</v>
+      </c>
+      <c r="F657" t="n">
+        <v>44.5399</v>
+      </c>
+      <c r="G657" t="n">
+        <v>799.6228219916957</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>10220</v>
+      </c>
+      <c r="C658" t="n">
+        <v>10210</v>
+      </c>
+      <c r="D658" t="n">
+        <v>10220</v>
+      </c>
+      <c r="E658" t="n">
+        <v>10210</v>
+      </c>
+      <c r="F658" t="n">
+        <v>34.1085</v>
+      </c>
+      <c r="G658" t="n">
+        <v>765.5143219916956</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>10220</v>
+      </c>
+      <c r="C659" t="n">
+        <v>10220</v>
+      </c>
+      <c r="D659" t="n">
+        <v>10220</v>
+      </c>
+      <c r="E659" t="n">
+        <v>10220</v>
+      </c>
+      <c r="F659" t="n">
+        <v>2.8216</v>
+      </c>
+      <c r="G659" t="n">
+        <v>768.3359219916956</v>
+      </c>
+      <c r="H659" t="n">
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>10210</v>
+      </c>
+      <c r="J659" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>10210</v>
+      </c>
+      <c r="C660" t="n">
+        <v>10210</v>
+      </c>
+      <c r="D660" t="n">
+        <v>10210</v>
+      </c>
+      <c r="E660" t="n">
+        <v>10210</v>
+      </c>
+      <c r="F660" t="n">
+        <v>2.8217</v>
+      </c>
+      <c r="G660" t="n">
+        <v>765.5142219916956</v>
+      </c>
+      <c r="H660" t="n">
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>10220</v>
+      </c>
+      <c r="J660" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>10210</v>
+      </c>
+      <c r="C661" t="n">
+        <v>10210</v>
+      </c>
+      <c r="D661" t="n">
+        <v>10210</v>
+      </c>
+      <c r="E661" t="n">
+        <v>10210</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.9382</v>
+      </c>
+      <c r="G661" t="n">
+        <v>765.5142219916956</v>
+      </c>
+      <c r="H661" t="n">
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>10210</v>
+      </c>
+      <c r="J661" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>10280</v>
+      </c>
+      <c r="C662" t="n">
+        <v>10280</v>
+      </c>
+      <c r="D662" t="n">
+        <v>10280</v>
+      </c>
+      <c r="E662" t="n">
+        <v>10280</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2.6375</v>
+      </c>
+      <c r="G662" t="n">
+        <v>768.1517219916957</v>
+      </c>
+      <c r="H662" t="n">
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>10210</v>
+      </c>
+      <c r="J662" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>10250</v>
+      </c>
+      <c r="C663" t="n">
+        <v>10250</v>
+      </c>
+      <c r="D663" t="n">
+        <v>10250</v>
+      </c>
+      <c r="E663" t="n">
+        <v>10250</v>
+      </c>
+      <c r="F663" t="n">
+        <v>115.7706</v>
+      </c>
+      <c r="G663" t="n">
+        <v>652.3811219916956</v>
+      </c>
+      <c r="H663" t="n">
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>10280</v>
+      </c>
+      <c r="J663" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
         <v>10240</v>
       </c>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
+      <c r="C664" t="n">
+        <v>10210</v>
+      </c>
+      <c r="D664" t="n">
+        <v>10240</v>
+      </c>
+      <c r="E664" t="n">
+        <v>10210</v>
+      </c>
+      <c r="F664" t="n">
+        <v>114.5792</v>
+      </c>
+      <c r="G664" t="n">
+        <v>537.8019219916956</v>
+      </c>
+      <c r="H664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>10250</v>
+      </c>
+      <c r="J664" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K664" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>10260</v>
-      </c>
-      <c r="C568" t="n">
-        <v>10270</v>
-      </c>
-      <c r="D568" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E568" t="n">
-        <v>10260</v>
-      </c>
-      <c r="F568" t="n">
-        <v>382.0008</v>
-      </c>
-      <c r="G568" t="n">
-        <v>1021.527201668809</v>
-      </c>
-      <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>10250</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C569" t="n">
-        <v>10280</v>
-      </c>
-      <c r="D569" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E569" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F569" t="n">
-        <v>20.3101</v>
-      </c>
-      <c r="G569" t="n">
-        <v>1041.837301668809</v>
-      </c>
-      <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>10270</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C570" t="n">
-        <v>10280</v>
-      </c>
-      <c r="D570" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E570" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F570" t="n">
-        <v>5.461</v>
-      </c>
-      <c r="G570" t="n">
-        <v>1041.837301668809</v>
-      </c>
-      <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C571" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D571" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E571" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F571" t="n">
-        <v>2</v>
-      </c>
-      <c r="G571" t="n">
-        <v>1043.837301668809</v>
-      </c>
-      <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C572" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D572" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E572" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F572" t="n">
-        <v>9.2079</v>
-      </c>
-      <c r="G572" t="n">
-        <v>1043.837301668809</v>
-      </c>
-      <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>10350</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C573" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D573" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E573" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F573" t="n">
-        <v>139.5231</v>
-      </c>
-      <c r="G573" t="n">
-        <v>1183.360401668809</v>
-      </c>
-      <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>10350</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>10500</v>
-      </c>
-      <c r="C574" t="n">
-        <v>10500</v>
-      </c>
-      <c r="D574" t="n">
-        <v>10500</v>
-      </c>
-      <c r="E574" t="n">
-        <v>10500</v>
-      </c>
-      <c r="F574" t="n">
-        <v>56.4959</v>
-      </c>
-      <c r="G574" t="n">
-        <v>1239.856301668809</v>
-      </c>
-      <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>10400</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>10510</v>
-      </c>
-      <c r="C575" t="n">
-        <v>10520</v>
-      </c>
-      <c r="D575" t="n">
-        <v>10520</v>
-      </c>
-      <c r="E575" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F575" t="n">
-        <v>137.1122</v>
-      </c>
-      <c r="G575" t="n">
-        <v>1376.968501668809</v>
-      </c>
-      <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>10500</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>10550</v>
-      </c>
-      <c r="C576" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D576" t="n">
-        <v>10550</v>
-      </c>
-      <c r="E576" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F576" t="n">
-        <v>292.8567</v>
-      </c>
-      <c r="G576" t="n">
-        <v>1669.825201668809</v>
-      </c>
-      <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C577" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D577" t="n">
-        <v>10550</v>
-      </c>
-      <c r="E577" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F577" t="n">
-        <v>77.92610000000001</v>
-      </c>
-      <c r="G577" t="n">
-        <v>1669.825201668809</v>
-      </c>
-      <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>10540</v>
-      </c>
-      <c r="C578" t="n">
-        <v>10540</v>
-      </c>
-      <c r="D578" t="n">
-        <v>10540</v>
-      </c>
-      <c r="E578" t="n">
-        <v>10540</v>
-      </c>
-      <c r="F578" t="n">
-        <v>11.3925</v>
-      </c>
-      <c r="G578" t="n">
-        <v>1669.825201668809</v>
-      </c>
-      <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C579" t="n">
-        <v>10510</v>
-      </c>
-      <c r="D579" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E579" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F579" t="n">
-        <v>1.654</v>
-      </c>
-      <c r="G579" t="n">
-        <v>1668.171201668809</v>
-      </c>
-      <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>10510</v>
-      </c>
-      <c r="C580" t="n">
-        <v>10510</v>
-      </c>
-      <c r="D580" t="n">
-        <v>10510</v>
-      </c>
-      <c r="E580" t="n">
-        <v>10510</v>
-      </c>
-      <c r="F580" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="G580" t="n">
-        <v>1668.171201668809</v>
-      </c>
-      <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>10510</v>
-      </c>
-      <c r="C581" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D581" t="n">
-        <v>10510</v>
-      </c>
-      <c r="E581" t="n">
-        <v>10450</v>
-      </c>
-      <c r="F581" t="n">
-        <v>3</v>
-      </c>
-      <c r="G581" t="n">
-        <v>1665.171201668809</v>
-      </c>
-      <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C582" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D582" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E582" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F582" t="n">
-        <v>0.3402</v>
-      </c>
-      <c r="G582" t="n">
-        <v>1665.511401668809</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C583" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D583" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E583" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F583" t="n">
-        <v>1.0207</v>
-      </c>
-      <c r="G583" t="n">
-        <v>1665.511401668809</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C584" t="n">
-        <v>10520</v>
-      </c>
-      <c r="D584" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E584" t="n">
-        <v>10520</v>
-      </c>
-      <c r="F584" t="n">
-        <v>0.9021</v>
-      </c>
-      <c r="G584" t="n">
-        <v>1664.609301668809</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>10520</v>
-      </c>
-      <c r="C585" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D585" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E585" t="n">
-        <v>10520</v>
-      </c>
-      <c r="F585" t="n">
-        <v>47.91602032288699</v>
-      </c>
-      <c r="G585" t="n">
-        <v>1712.525321991696</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C586" t="n">
-        <v>10530</v>
-      </c>
-      <c r="D586" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E586" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F586" t="n">
-        <v>14.2286799620133</v>
-      </c>
-      <c r="G586" t="n">
-        <v>1712.525321991696</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>10530</v>
-      </c>
-      <c r="C587" t="n">
-        <v>10580</v>
-      </c>
-      <c r="D587" t="n">
-        <v>10580</v>
-      </c>
-      <c r="E587" t="n">
-        <v>10530</v>
-      </c>
-      <c r="F587" t="n">
-        <v>277.817</v>
-      </c>
-      <c r="G587" t="n">
-        <v>1990.342321991696</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>10580</v>
-      </c>
-      <c r="C588" t="n">
-        <v>10460</v>
-      </c>
-      <c r="D588" t="n">
-        <v>10580</v>
-      </c>
-      <c r="E588" t="n">
-        <v>10460</v>
-      </c>
-      <c r="F588" t="n">
-        <v>3.3964</v>
-      </c>
-      <c r="G588" t="n">
-        <v>1986.945921991696</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>10460</v>
-      </c>
-      <c r="C589" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D589" t="n">
-        <v>10460</v>
-      </c>
-      <c r="E589" t="n">
-        <v>10450</v>
-      </c>
-      <c r="F589" t="n">
-        <v>27.2146</v>
-      </c>
-      <c r="G589" t="n">
-        <v>1959.731321991696</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>10450</v>
-      </c>
-      <c r="C590" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D590" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E590" t="n">
-        <v>10450</v>
-      </c>
-      <c r="F590" t="n">
-        <v>1.0755</v>
-      </c>
-      <c r="G590" t="n">
-        <v>1959.731321991696</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C591" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D591" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E591" t="n">
-        <v>10440</v>
-      </c>
-      <c r="F591" t="n">
-        <v>1.5448</v>
-      </c>
-      <c r="G591" t="n">
-        <v>1958.186521991696</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C592" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D592" t="n">
-        <v>10500</v>
-      </c>
-      <c r="E592" t="n">
-        <v>10400</v>
-      </c>
-      <c r="F592" t="n">
-        <v>8.3588</v>
-      </c>
-      <c r="G592" t="n">
-        <v>1949.827721991696</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C593" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D593" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E593" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F593" t="n">
-        <v>45.9817</v>
-      </c>
-      <c r="G593" t="n">
-        <v>1903.846021991696</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C594" t="n">
-        <v>10370</v>
-      </c>
-      <c r="D594" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E594" t="n">
-        <v>10370</v>
-      </c>
-      <c r="F594" t="n">
-        <v>90.9543</v>
-      </c>
-      <c r="G594" t="n">
-        <v>1812.891721991696</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>10370</v>
-      </c>
-      <c r="C595" t="n">
-        <v>10370</v>
-      </c>
-      <c r="D595" t="n">
-        <v>10470</v>
-      </c>
-      <c r="E595" t="n">
-        <v>10370</v>
-      </c>
-      <c r="F595" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="G595" t="n">
-        <v>1812.891721991696</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C596" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D596" t="n">
-        <v>10460</v>
-      </c>
-      <c r="E596" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F596" t="n">
-        <v>404.405</v>
-      </c>
-      <c r="G596" t="n">
-        <v>1408.486721991696</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C597" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D597" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E597" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F597" t="n">
-        <v>56.2733</v>
-      </c>
-      <c r="G597" t="n">
-        <v>1408.486721991696</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C598" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D598" t="n">
-        <v>10440</v>
-      </c>
-      <c r="E598" t="n">
-        <v>10440</v>
-      </c>
-      <c r="F598" t="n">
-        <v>0.7645999999999999</v>
-      </c>
-      <c r="G598" t="n">
-        <v>1409.251321991696</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>10430</v>
-      </c>
-      <c r="C599" t="n">
-        <v>10430</v>
-      </c>
-      <c r="D599" t="n">
-        <v>10430</v>
-      </c>
-      <c r="E599" t="n">
-        <v>10430</v>
-      </c>
-      <c r="F599" t="n">
-        <v>0.4592</v>
-      </c>
-      <c r="G599" t="n">
-        <v>1408.792121991696</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>10430</v>
-      </c>
-      <c r="C600" t="n">
-        <v>10430</v>
-      </c>
-      <c r="D600" t="n">
-        <v>10430</v>
-      </c>
-      <c r="E600" t="n">
-        <v>10430</v>
-      </c>
-      <c r="F600" t="n">
-        <v>0.8104</v>
-      </c>
-      <c r="G600" t="n">
-        <v>1408.792121991696</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>10400</v>
-      </c>
-      <c r="C601" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D601" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E601" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F601" t="n">
-        <v>216.9472</v>
-      </c>
-      <c r="G601" t="n">
-        <v>1191.844921991696</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C602" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D602" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E602" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F602" t="n">
-        <v>66.78400000000001</v>
-      </c>
-      <c r="G602" t="n">
-        <v>1191.844921991696</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C603" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D603" t="n">
-        <v>10410</v>
-      </c>
-      <c r="E603" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F603" t="n">
-        <v>0.2313</v>
-      </c>
-      <c r="G603" t="n">
-        <v>1192.076221991696</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C604" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D604" t="n">
-        <v>10410</v>
-      </c>
-      <c r="E604" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F604" t="n">
-        <v>1.2179</v>
-      </c>
-      <c r="G604" t="n">
-        <v>1192.076221991696</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C605" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D605" t="n">
-        <v>10410</v>
-      </c>
-      <c r="E605" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F605" t="n">
-        <v>0.9134</v>
-      </c>
-      <c r="G605" t="n">
-        <v>1192.076221991696</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C606" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D606" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E606" t="n">
-        <v>10440</v>
-      </c>
-      <c r="F606" t="n">
-        <v>2.1201</v>
-      </c>
-      <c r="G606" t="n">
-        <v>1194.196321991696</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C607" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D607" t="n">
-        <v>10440</v>
-      </c>
-      <c r="E607" t="n">
-        <v>10440</v>
-      </c>
-      <c r="F607" t="n">
-        <v>1.2273</v>
-      </c>
-      <c r="G607" t="n">
-        <v>1192.969021991696</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C608" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D608" t="n">
-        <v>10440</v>
-      </c>
-      <c r="E608" t="n">
-        <v>10440</v>
-      </c>
-      <c r="F608" t="n">
-        <v>0.7365</v>
-      </c>
-      <c r="G608" t="n">
-        <v>1192.969021991696</v>
-      </c>
-      <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>10430</v>
-      </c>
-      <c r="C609" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D609" t="n">
-        <v>10440</v>
-      </c>
-      <c r="E609" t="n">
-        <v>10430</v>
-      </c>
-      <c r="F609" t="n">
-        <v>1.095</v>
-      </c>
-      <c r="G609" t="n">
-        <v>1192.969021991696</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>10450</v>
-      </c>
-      <c r="C610" t="n">
-        <v>10450</v>
-      </c>
-      <c r="D610" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E610" t="n">
-        <v>10450</v>
-      </c>
-      <c r="F610" t="n">
-        <v>0.2978</v>
-      </c>
-      <c r="G610" t="n">
-        <v>1193.266821991696</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>10450</v>
-      </c>
-      <c r="C611" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D611" t="n">
-        <v>10450</v>
-      </c>
-      <c r="E611" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F611" t="n">
-        <v>31.682</v>
-      </c>
-      <c r="G611" t="n">
-        <v>1161.584821991696</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C612" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D612" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E612" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F612" t="n">
-        <v>0.9645</v>
-      </c>
-      <c r="G612" t="n">
-        <v>1162.549321991696</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C613" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D613" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E613" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F613" t="n">
-        <v>0.9646</v>
-      </c>
-      <c r="G613" t="n">
-        <v>1162.549321991696</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C614" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D614" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E614" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F614" t="n">
-        <v>34.2855</v>
-      </c>
-      <c r="G614" t="n">
-        <v>1196.834821991696</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>10490</v>
-      </c>
-      <c r="C615" t="n">
-        <v>10490</v>
-      </c>
-      <c r="D615" t="n">
-        <v>10490</v>
-      </c>
-      <c r="E615" t="n">
-        <v>10490</v>
-      </c>
-      <c r="F615" t="n">
-        <v>0.1917</v>
-      </c>
-      <c r="G615" t="n">
-        <v>1197.026521991696</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C616" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D616" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E616" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F616" t="n">
-        <v>76.904</v>
-      </c>
-      <c r="G616" t="n">
-        <v>1120.122521991696</v>
-      </c>
-      <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C617" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D617" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E617" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F617" t="n">
-        <v>56.8572</v>
-      </c>
-      <c r="G617" t="n">
-        <v>1063.265321991696</v>
-      </c>
-      <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C618" t="n">
-        <v>10410</v>
-      </c>
-      <c r="D618" t="n">
-        <v>10410</v>
-      </c>
-      <c r="E618" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F618" t="n">
-        <v>2.1691</v>
-      </c>
-      <c r="G618" t="n">
-        <v>1065.434421991696</v>
-      </c>
-      <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>10410</v>
-      </c>
-      <c r="C619" t="n">
-        <v>10430</v>
-      </c>
-      <c r="D619" t="n">
-        <v>10430</v>
-      </c>
-      <c r="E619" t="n">
-        <v>10410</v>
-      </c>
-      <c r="F619" t="n">
-        <v>0.5441</v>
-      </c>
-      <c r="G619" t="n">
-        <v>1065.978521991696</v>
-      </c>
-      <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>10430</v>
-      </c>
-      <c r="C620" t="n">
-        <v>10430</v>
-      </c>
-      <c r="D620" t="n">
-        <v>10430</v>
-      </c>
-      <c r="E620" t="n">
-        <v>10430</v>
-      </c>
-      <c r="F620" t="n">
-        <v>1.1073</v>
-      </c>
-      <c r="G620" t="n">
-        <v>1065.978521991696</v>
-      </c>
-      <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C621" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D621" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E621" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F621" t="n">
-        <v>0.1912</v>
-      </c>
-      <c r="G621" t="n">
-        <v>1065.787321991696</v>
-      </c>
-      <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C622" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D622" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E622" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F622" t="n">
-        <v>0.5621</v>
-      </c>
-      <c r="G622" t="n">
-        <v>1066.349421991696</v>
-      </c>
-      <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C623" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D623" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E623" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F623" t="n">
-        <v>0.1874</v>
-      </c>
-      <c r="G623" t="n">
-        <v>1066.349421991696</v>
-      </c>
-      <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C624" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D624" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E624" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F624" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="G624" t="n">
-        <v>1066.349421991696</v>
-      </c>
-      <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>10340</v>
-      </c>
-      <c r="C625" t="n">
-        <v>10340</v>
-      </c>
-      <c r="D625" t="n">
-        <v>10340</v>
-      </c>
-      <c r="E625" t="n">
-        <v>10340</v>
-      </c>
-      <c r="F625" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G625" t="n">
-        <v>1064.889421991696</v>
-      </c>
-      <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C626" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D626" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E626" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F626" t="n">
-        <v>3.4149</v>
-      </c>
-      <c r="G626" t="n">
-        <v>1068.304321991696</v>
-      </c>
-      <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C627" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D627" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E627" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F627" t="n">
-        <v>0.6616</v>
-      </c>
-      <c r="G627" t="n">
-        <v>1068.304321991696</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C628" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D628" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E628" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F628" t="n">
-        <v>0.5201</v>
-      </c>
-      <c r="G628" t="n">
-        <v>1068.304321991696</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C629" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D629" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E629" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F629" t="n">
-        <v>8.8628</v>
-      </c>
-      <c r="G629" t="n">
-        <v>1059.441521991696</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>10390</v>
-      </c>
-      <c r="C630" t="n">
-        <v>10390</v>
-      </c>
-      <c r="D630" t="n">
-        <v>10390</v>
-      </c>
-      <c r="E630" t="n">
-        <v>10390</v>
-      </c>
-      <c r="F630" t="n">
-        <v>30.2214</v>
-      </c>
-      <c r="G630" t="n">
-        <v>1089.662921991696</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C631" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D631" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E631" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F631" t="n">
-        <v>1.6041</v>
-      </c>
-      <c r="G631" t="n">
-        <v>1088.058821991696</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C632" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D632" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E632" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F632" t="n">
-        <v>3.2305</v>
-      </c>
-      <c r="G632" t="n">
-        <v>1088.058821991696</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C633" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D633" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E633" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F633" t="n">
-        <v>2</v>
-      </c>
-      <c r="G633" t="n">
-        <v>1088.058821991696</v>
-      </c>
-      <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>10330</v>
-      </c>
-      <c r="C634" t="n">
-        <v>10330</v>
-      </c>
-      <c r="D634" t="n">
-        <v>10330</v>
-      </c>
-      <c r="E634" t="n">
-        <v>10330</v>
-      </c>
-      <c r="F634" t="n">
-        <v>0.2426</v>
-      </c>
-      <c r="G634" t="n">
-        <v>1087.816221991696</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>10330</v>
-      </c>
-      <c r="C635" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D635" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E635" t="n">
-        <v>10330</v>
-      </c>
-      <c r="F635" t="n">
-        <v>72.081</v>
-      </c>
-      <c r="G635" t="n">
-        <v>1159.897221991696</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C636" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D636" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E636" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F636" t="n">
-        <v>88.2719</v>
-      </c>
-      <c r="G636" t="n">
-        <v>1159.897221991696</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C637" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D637" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E637" t="n">
-        <v>10310</v>
-      </c>
-      <c r="F637" t="n">
-        <v>104.9084</v>
-      </c>
-      <c r="G637" t="n">
-        <v>1054.988821991696</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>10320</v>
-      </c>
-      <c r="C638" t="n">
-        <v>10310</v>
-      </c>
-      <c r="D638" t="n">
-        <v>10320</v>
-      </c>
-      <c r="E638" t="n">
-        <v>10310</v>
-      </c>
-      <c r="F638" t="n">
-        <v>22.4018</v>
-      </c>
-      <c r="G638" t="n">
-        <v>1032.587021991696</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C639" t="n">
-        <v>10330</v>
-      </c>
-      <c r="D639" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E639" t="n">
-        <v>10330</v>
-      </c>
-      <c r="F639" t="n">
-        <v>27.615</v>
-      </c>
-      <c r="G639" t="n">
-        <v>1060.202021991696</v>
-      </c>
-      <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>10310</v>
-      </c>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>10320</v>
-      </c>
-      <c r="C640" t="n">
-        <v>10330</v>
-      </c>
-      <c r="D640" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E640" t="n">
-        <v>10320</v>
-      </c>
-      <c r="F640" t="n">
-        <v>8.436500000000001</v>
-      </c>
-      <c r="G640" t="n">
-        <v>1060.202021991696</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C641" t="n">
-        <v>10350</v>
-      </c>
-      <c r="D641" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E641" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F641" t="n">
-        <v>0.1122</v>
-      </c>
-      <c r="G641" t="n">
-        <v>1060.314221991696</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>10330</v>
-      </c>
-      <c r="C642" t="n">
-        <v>10330</v>
-      </c>
-      <c r="D642" t="n">
-        <v>10330</v>
-      </c>
-      <c r="E642" t="n">
-        <v>10330</v>
-      </c>
-      <c r="F642" t="n">
-        <v>1.5356</v>
-      </c>
-      <c r="G642" t="n">
-        <v>1058.778621991696</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C643" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D643" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E643" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F643" t="n">
-        <v>7.3751</v>
-      </c>
-      <c r="G643" t="n">
-        <v>1066.153721991696</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C644" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D644" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E644" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F644" t="n">
-        <v>79.7103</v>
-      </c>
-      <c r="G644" t="n">
-        <v>1066.153721991696</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C645" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D645" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E645" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F645" t="n">
-        <v>51.688</v>
-      </c>
-      <c r="G645" t="n">
-        <v>1066.153721991696</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>10360</v>
-      </c>
-      <c r="C646" t="n">
-        <v>10360</v>
-      </c>
-      <c r="D646" t="n">
-        <v>10360</v>
-      </c>
-      <c r="E646" t="n">
-        <v>10360</v>
-      </c>
-      <c r="F646" t="n">
-        <v>62</v>
-      </c>
-      <c r="G646" t="n">
-        <v>1066.153721991696</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>10330</v>
-      </c>
-      <c r="C647" t="n">
-        <v>10300</v>
-      </c>
-      <c r="D647" t="n">
-        <v>10330</v>
-      </c>
-      <c r="E647" t="n">
-        <v>10300</v>
-      </c>
-      <c r="F647" t="n">
-        <v>181.6699</v>
-      </c>
-      <c r="G647" t="n">
-        <v>884.4838219916957</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>10350</v>
-      </c>
-      <c r="C648" t="n">
-        <v>10290</v>
-      </c>
-      <c r="D648" t="n">
-        <v>10350</v>
-      </c>
-      <c r="E648" t="n">
-        <v>10290</v>
-      </c>
-      <c r="F648" t="n">
-        <v>10.6218</v>
-      </c>
-      <c r="G648" t="n">
-        <v>873.8620219916957</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>10290</v>
-      </c>
-      <c r="C649" t="n">
-        <v>10290</v>
-      </c>
-      <c r="D649" t="n">
-        <v>10290</v>
-      </c>
-      <c r="E649" t="n">
-        <v>10290</v>
-      </c>
-      <c r="F649" t="n">
-        <v>32.5382</v>
-      </c>
-      <c r="G649" t="n">
-        <v>873.8620219916957</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>10330</v>
-      </c>
-      <c r="C650" t="n">
-        <v>10330</v>
-      </c>
-      <c r="D650" t="n">
-        <v>10330</v>
-      </c>
-      <c r="E650" t="n">
-        <v>10330</v>
-      </c>
-      <c r="F650" t="n">
-        <v>0.2625</v>
-      </c>
-      <c r="G650" t="n">
-        <v>874.1245219916957</v>
-      </c>
-      <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>10290</v>
-      </c>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>10310</v>
-      </c>
-      <c r="C651" t="n">
-        <v>10310</v>
-      </c>
-      <c r="D651" t="n">
-        <v>10310</v>
-      </c>
-      <c r="E651" t="n">
-        <v>10310</v>
-      </c>
-      <c r="F651" t="n">
-        <v>0.1315</v>
-      </c>
-      <c r="G651" t="n">
-        <v>873.9930219916957</v>
-      </c>
-      <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>10330</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>10290</v>
-      </c>
-      <c r="C652" t="n">
-        <v>10290</v>
-      </c>
-      <c r="D652" t="n">
-        <v>10290</v>
-      </c>
-      <c r="E652" t="n">
-        <v>10290</v>
-      </c>
-      <c r="F652" t="n">
-        <v>15</v>
-      </c>
-      <c r="G652" t="n">
-        <v>858.9930219916957</v>
-      </c>
-      <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>10310</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C653" t="n">
-        <v>10280</v>
-      </c>
-      <c r="D653" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E653" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F653" t="n">
-        <v>3.2213</v>
-      </c>
-      <c r="G653" t="n">
-        <v>855.7717219916957</v>
-      </c>
-      <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>10290</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C654" t="n">
-        <v>10280</v>
-      </c>
-      <c r="D654" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E654" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F654" t="n">
-        <v>8.099399999999999</v>
-      </c>
-      <c r="G654" t="n">
-        <v>855.7717219916957</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C655" t="n">
-        <v>10280</v>
-      </c>
-      <c r="D655" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E655" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F655" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="G655" t="n">
-        <v>855.7717219916957</v>
-      </c>
-      <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C656" t="n">
-        <v>10260</v>
-      </c>
-      <c r="D656" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E656" t="n">
-        <v>10250</v>
-      </c>
-      <c r="F656" t="n">
-        <v>11.609</v>
-      </c>
-      <c r="G656" t="n">
-        <v>844.1627219916957</v>
-      </c>
-      <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>10290</v>
-      </c>
-      <c r="C657" t="n">
-        <v>10250</v>
-      </c>
-      <c r="D657" t="n">
-        <v>10290</v>
-      </c>
-      <c r="E657" t="n">
-        <v>10250</v>
-      </c>
-      <c r="F657" t="n">
-        <v>44.5399</v>
-      </c>
-      <c r="G657" t="n">
-        <v>799.6228219916957</v>
-      </c>
-      <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>10260</v>
-      </c>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>10220</v>
-      </c>
-      <c r="C658" t="n">
-        <v>10210</v>
-      </c>
-      <c r="D658" t="n">
-        <v>10220</v>
-      </c>
-      <c r="E658" t="n">
-        <v>10210</v>
-      </c>
-      <c r="F658" t="n">
-        <v>34.1085</v>
-      </c>
-      <c r="G658" t="n">
-        <v>765.5143219916956</v>
-      </c>
-      <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>10250</v>
-      </c>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>10220</v>
-      </c>
-      <c r="C659" t="n">
-        <v>10220</v>
-      </c>
-      <c r="D659" t="n">
-        <v>10220</v>
-      </c>
-      <c r="E659" t="n">
-        <v>10220</v>
-      </c>
-      <c r="F659" t="n">
-        <v>2.8216</v>
-      </c>
-      <c r="G659" t="n">
-        <v>768.3359219916956</v>
-      </c>
-      <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>10210</v>
-      </c>
-      <c r="C660" t="n">
-        <v>10210</v>
-      </c>
-      <c r="D660" t="n">
-        <v>10210</v>
-      </c>
-      <c r="E660" t="n">
-        <v>10210</v>
-      </c>
-      <c r="F660" t="n">
-        <v>2.8217</v>
-      </c>
-      <c r="G660" t="n">
-        <v>765.5142219916956</v>
-      </c>
-      <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>10220</v>
-      </c>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>10210</v>
-      </c>
-      <c r="C661" t="n">
-        <v>10210</v>
-      </c>
-      <c r="D661" t="n">
-        <v>10210</v>
-      </c>
-      <c r="E661" t="n">
-        <v>10210</v>
-      </c>
-      <c r="F661" t="n">
-        <v>0.9382</v>
-      </c>
-      <c r="G661" t="n">
-        <v>765.5142219916956</v>
-      </c>
-      <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>10280</v>
-      </c>
-      <c r="C662" t="n">
-        <v>10280</v>
-      </c>
-      <c r="D662" t="n">
-        <v>10280</v>
-      </c>
-      <c r="E662" t="n">
-        <v>10280</v>
-      </c>
-      <c r="F662" t="n">
-        <v>2.6375</v>
-      </c>
-      <c r="G662" t="n">
-        <v>768.1517219916957</v>
-      </c>
-      <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>10210</v>
-      </c>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>10250</v>
-      </c>
-      <c r="C663" t="n">
-        <v>10250</v>
-      </c>
-      <c r="D663" t="n">
-        <v>10250</v>
-      </c>
-      <c r="E663" t="n">
-        <v>10250</v>
-      </c>
-      <c r="F663" t="n">
-        <v>115.7706</v>
-      </c>
-      <c r="G663" t="n">
-        <v>652.3811219916956</v>
-      </c>
-      <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>10280</v>
-      </c>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>10240</v>
-      </c>
-      <c r="C664" t="n">
-        <v>10210</v>
-      </c>
-      <c r="D664" t="n">
-        <v>10240</v>
-      </c>
-      <c r="E664" t="n">
-        <v>10210</v>
-      </c>
-      <c r="F664" t="n">
-        <v>114.5792</v>
-      </c>
-      <c r="G664" t="n">
-        <v>537.8019219916956</v>
-      </c>
-      <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>10250</v>
-      </c>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22777,7 +22551,9 @@
       <c r="I665" t="n">
         <v>10210</v>
       </c>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>10210</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22816,7 +22592,9 @@
       <c r="I666" t="n">
         <v>10210</v>
       </c>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>10210</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22855,7 +22633,9 @@
       <c r="I667" t="n">
         <v>10200</v>
       </c>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>10210</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22894,7 +22674,9 @@
       <c r="I668" t="n">
         <v>10190</v>
       </c>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>10210</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22933,7 +22715,9 @@
       <c r="I669" t="n">
         <v>10200</v>
       </c>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>10210</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22972,7 +22756,9 @@
       <c r="I670" t="n">
         <v>10200</v>
       </c>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>10210</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23011,7 +22797,9 @@
       <c r="I671" t="n">
         <v>10200</v>
       </c>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>10210</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23050,7 +22838,9 @@
       <c r="I672" t="n">
         <v>10200</v>
       </c>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>10210</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23089,7 +22879,9 @@
       <c r="I673" t="n">
         <v>10240</v>
       </c>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>10210</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23128,7 +22920,9 @@
       <c r="I674" t="n">
         <v>10240</v>
       </c>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>10210</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23167,7 +22961,9 @@
       <c r="I675" t="n">
         <v>10200</v>
       </c>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>10210</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23206,7 +23002,9 @@
       <c r="I676" t="n">
         <v>10200</v>
       </c>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>10210</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23245,7 +23043,9 @@
       <c r="I677" t="n">
         <v>10290</v>
       </c>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>10210</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23284,7 +23084,9 @@
       <c r="I678" t="n">
         <v>10250</v>
       </c>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>10210</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23323,7 +23125,9 @@
       <c r="I679" t="n">
         <v>10230</v>
       </c>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>10210</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23362,7 +23166,9 @@
       <c r="I680" t="n">
         <v>10220</v>
       </c>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>10210</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23401,7 +23207,9 @@
       <c r="I681" t="n">
         <v>10190</v>
       </c>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>10210</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23440,7 +23248,9 @@
       <c r="I682" t="n">
         <v>10240</v>
       </c>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>10210</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23479,7 +23289,9 @@
       <c r="I683" t="n">
         <v>10250</v>
       </c>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>10210</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23518,7 +23330,9 @@
       <c r="I684" t="n">
         <v>10260</v>
       </c>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>10210</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23557,7 +23371,9 @@
       <c r="I685" t="n">
         <v>10250</v>
       </c>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>10210</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23596,7 +23412,9 @@
       <c r="I686" t="n">
         <v>10230</v>
       </c>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>10210</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23635,7 +23453,9 @@
       <c r="I687" t="n">
         <v>10210</v>
       </c>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>10210</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23674,7 +23494,9 @@
       <c r="I688" t="n">
         <v>10210</v>
       </c>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>10210</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23713,7 +23535,9 @@
       <c r="I689" t="n">
         <v>10200</v>
       </c>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>10210</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23752,7 +23576,9 @@
       <c r="I690" t="n">
         <v>10200</v>
       </c>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>10210</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23791,7 +23617,9 @@
       <c r="I691" t="n">
         <v>10200</v>
       </c>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>10210</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23830,7 +23658,9 @@
       <c r="I692" t="n">
         <v>10220</v>
       </c>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>10210</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23869,7 +23699,9 @@
       <c r="I693" t="n">
         <v>10280</v>
       </c>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>10210</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23908,7 +23740,9 @@
       <c r="I694" t="n">
         <v>10280</v>
       </c>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>10210</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23947,7 +23781,9 @@
       <c r="I695" t="n">
         <v>10280</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>10210</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23986,7 +23822,9 @@
       <c r="I696" t="n">
         <v>10330</v>
       </c>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>10210</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24020,12 +23858,12 @@
         <v>-214.5294057426794</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>10390</v>
-      </c>
-      <c r="J697" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>10210</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24059,12 +23897,12 @@
         <v>-196.7594057426794</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>10310</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>10210</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24098,12 +23936,12 @@
         <v>-186.7690135311409</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>10390</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>10210</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24137,12 +23975,12 @@
         <v>-188.1590135311409</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>10400</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>10210</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24176,12 +24014,12 @@
         <v>-188.1590135311409</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>10340</v>
-      </c>
-      <c r="J701" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>10210</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24215,12 +24053,12 @@
         <v>65.15568646885907</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>10340</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>10210</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24254,12 +24092,12 @@
         <v>162.8244864688591</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>10350</v>
-      </c>
-      <c r="J703" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>10210</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24293,12 +24131,12 @@
         <v>162.8722864688591</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>10400</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>10210</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24335,7 +24173,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>10210</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24372,7 +24212,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>10210</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24409,7 +24251,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>10210</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24446,7 +24290,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>10210</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24483,7 +24329,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>10210</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24520,7 +24368,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>10210</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24557,7 +24407,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>10210</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24594,7 +24446,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>10210</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24631,7 +24485,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>10210</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24668,7 +24524,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>10210</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24705,7 +24563,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>10210</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24742,7 +24602,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>10210</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24779,7 +24641,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>10210</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24816,7 +24680,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>10210</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24853,7 +24719,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>10210</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24890,7 +24758,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>10210</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24927,7 +24797,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>10210</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24964,7 +24836,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>10210</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25001,7 +24875,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>10210</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25038,7 +24914,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>10210</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25075,7 +24953,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>10210</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25112,7 +24992,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>10210</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25149,7 +25031,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>10210</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25161,6 +25045,6 @@
       <c r="M727" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest REP.xlsx
+++ b/BackTest/2019-10-30 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>-1448.05912839589</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-1268.671707614193</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-1266.371707614193</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-1236.930307614193</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-1237.239107614193</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-479.7242948245732</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -761,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -798,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -872,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -909,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -946,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -983,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1020,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1057,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1131,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1168,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1353,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1390,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1501,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1538,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1575,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1612,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1686,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1797,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1834,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1908,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1945,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1978,16 +1804,14 @@
         <v>5260.597513043404</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -2013,7 +1837,7 @@
         <v>4201.751013043404</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2046,7 +1870,7 @@
         <v>4635.374513584432</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2079,7 +1903,7 @@
         <v>5203.873813584432</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2112,7 +1936,7 @@
         <v>7422.373813584432</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2145,7 +1969,7 @@
         <v>8290.151113584432</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2178,7 +2002,7 @@
         <v>9757.034946878865</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2211,7 +2035,7 @@
         <v>8818.410581151678</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3168,7 +2992,7 @@
         <v>12692.95297461225</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3267,7 +3091,7 @@
         <v>15354.8729219051</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3300,7 +3124,7 @@
         <v>16860.38675761939</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3333,7 +3157,7 @@
         <v>15739.04065761939</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3366,7 +3190,7 @@
         <v>15893.09615761939</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3399,7 +3223,7 @@
         <v>14107.21199454117</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3432,7 +3256,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3465,7 +3289,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3498,7 +3322,7 @@
         <v>13489.71649454117</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3531,7 +3355,7 @@
         <v>13102.31629411994</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3564,7 +3388,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3597,7 +3421,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3630,7 +3454,7 @@
         <v>13159.45405022778</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3663,7 +3487,7 @@
         <v>13076.23425022778</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3696,7 +3520,7 @@
         <v>12384.64305022777</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3729,7 +3553,7 @@
         <v>12099.21645022777</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3762,7 +3586,7 @@
         <v>11314.70785022777</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3795,7 +3619,7 @@
         <v>10744.64625022778</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3828,7 +3652,7 @@
         <v>10754.23185022778</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -23858,9 +23682,11 @@
         <v>-214.5294057426794</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>10390</v>
+      </c>
       <c r="J697" t="n">
         <v>10210</v>
       </c>
@@ -23897,9 +23723,11 @@
         <v>-196.7594057426794</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>10310</v>
+      </c>
       <c r="J698" t="n">
         <v>10210</v>
       </c>
